--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2931,6 +2931,23 @@
         <v>-1.102179609273968</v>
       </c>
     </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B150">
+        <v>2025</v>
+      </c>
+      <c r="C150">
+        <v>0.2298740481777584</v>
+      </c>
+      <c r="D150">
+        <v>2026</v>
+      </c>
+      <c r="E150">
+        <v>-0.05255865067609333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_9_full.xlsx
@@ -423,13 +423,13 @@
         <v>1988</v>
       </c>
       <c r="C2">
-        <v>3.415270364437228</v>
+        <v>3.123541145015474</v>
       </c>
       <c r="D2">
         <v>1989</v>
       </c>
       <c r="E2">
-        <v>4.649376756749724</v>
+        <v>4.320516327661528</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>1989</v>
       </c>
       <c r="C3">
-        <v>4.992539554150643</v>
+        <v>4.584280750397718</v>
       </c>
       <c r="D3">
         <v>1990</v>
       </c>
       <c r="E3">
-        <v>4.887631157853578</v>
+        <v>4.887631157853556</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>1989</v>
       </c>
       <c r="C4">
-        <v>4.538060149740408</v>
+        <v>4.311421759901735</v>
       </c>
       <c r="D4">
         <v>1990</v>
@@ -474,13 +474,13 @@
         <v>1989</v>
       </c>
       <c r="C5">
-        <v>3.582075428782638</v>
+        <v>3.831874700615412</v>
       </c>
       <c r="D5">
         <v>1990</v>
       </c>
       <c r="E5">
-        <v>1.659980519034598</v>
+        <v>1.813524687640311</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +491,13 @@
         <v>1989</v>
       </c>
       <c r="C6">
-        <v>3.962087242874768</v>
+        <v>3.959010658874851</v>
       </c>
       <c r="D6">
         <v>1990</v>
       </c>
       <c r="E6">
-        <v>3.526732593284598</v>
+        <v>3.433494243648449</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,7 +508,7 @@
         <v>1990</v>
       </c>
       <c r="C7">
-        <v>4.445197810650892</v>
+        <v>4.140211319120302</v>
       </c>
       <c r="D7">
         <v>1991</v>
@@ -525,13 +525,13 @@
         <v>1990</v>
       </c>
       <c r="C8">
-        <v>6.800911833344525</v>
+        <v>5.550740058157966</v>
       </c>
       <c r="D8">
         <v>1991</v>
       </c>
       <c r="E8">
-        <v>8.556235165581928</v>
+        <v>8.556235165581905</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +542,13 @@
         <v>1990</v>
       </c>
       <c r="C9">
-        <v>4.291573737691845</v>
+        <v>4.295773111133383</v>
       </c>
       <c r="D9">
         <v>1991</v>
       </c>
       <c r="E9">
-        <v>1.954737567070408</v>
+        <v>2.350056532656075</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +559,13 @@
         <v>1990</v>
       </c>
       <c r="C10">
-        <v>5.572174200363311</v>
+        <v>4.722695063536686</v>
       </c>
       <c r="D10">
         <v>1991</v>
       </c>
       <c r="E10">
-        <v>8.295742638086345</v>
+        <v>7.855477094481422</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +576,7 @@
         <v>1991</v>
       </c>
       <c r="C11">
-        <v>7.124713852296827</v>
+        <v>6.953450846453402</v>
       </c>
       <c r="D11">
         <v>1992</v>
@@ -593,13 +593,13 @@
         <v>1991</v>
       </c>
       <c r="C12">
-        <v>9.766134003411263</v>
+        <v>8.539761715194437</v>
       </c>
       <c r="D12">
         <v>1992</v>
       </c>
       <c r="E12">
-        <v>11.49866806009594</v>
+        <v>11.49866806009596</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +610,13 @@
         <v>1991</v>
       </c>
       <c r="C13">
-        <v>7.099895073767626</v>
+        <v>7.202476892283838</v>
       </c>
       <c r="D13">
         <v>1992</v>
       </c>
       <c r="E13">
-        <v>4.529431109038295</v>
+        <v>4.94242143456971</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>1991</v>
       </c>
       <c r="C14">
-        <v>5.729217279336951</v>
+        <v>6.739021039846627</v>
       </c>
       <c r="D14">
         <v>1992</v>
       </c>
       <c r="E14">
-        <v>-1.957387873818017</v>
+        <v>-0.7259153295281151</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,7 +644,7 @@
         <v>1992</v>
       </c>
       <c r="C15">
-        <v>2.8327439749807</v>
+        <v>2.985255316397306</v>
       </c>
       <c r="D15">
         <v>1993</v>
@@ -661,13 +661,13 @@
         <v>1992</v>
       </c>
       <c r="C16">
-        <v>4.065098651808263</v>
+        <v>3.726709966233899</v>
       </c>
       <c r="D16">
         <v>1993</v>
       </c>
       <c r="E16">
-        <v>5.505010735461169</v>
+        <v>5.505010735461191</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>1992</v>
       </c>
       <c r="C17">
-        <v>1.920336277732382</v>
+        <v>2.648111756588967</v>
       </c>
       <c r="D17">
         <v>1993</v>
       </c>
       <c r="E17">
-        <v>-0.1645300261888694</v>
+        <v>0.1791419150974916</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>1992</v>
       </c>
       <c r="C18">
-        <v>1.836428721507843</v>
+        <v>2.619839412265601</v>
       </c>
       <c r="D18">
         <v>1993</v>
       </c>
       <c r="E18">
-        <v>-0.5751622720924665</v>
+        <v>-0.17790865651377</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>1993</v>
       </c>
       <c r="C19">
-        <v>-0.5314283674101472</v>
+        <v>-0.1441451601183141</v>
       </c>
       <c r="D19">
         <v>1994</v>
       </c>
       <c r="E19">
-        <v>-0.5486955508589131</v>
+        <v>-0.5486955508589242</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,7 +729,7 @@
         <v>1993</v>
       </c>
       <c r="C20">
-        <v>-4.574773025041534</v>
+        <v>-2.591890155624477</v>
       </c>
       <c r="D20">
         <v>1994</v>
@@ -746,13 +746,13 @@
         <v>1993</v>
       </c>
       <c r="C21">
-        <v>-1.043664644480624</v>
+        <v>-0.8150822526223345</v>
       </c>
       <c r="D21">
         <v>1994</v>
       </c>
       <c r="E21">
-        <v>2.54674203774381</v>
+        <v>1.924746491217721</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +763,13 @@
         <v>1993</v>
       </c>
       <c r="C22">
-        <v>-0.9741487148503647</v>
+        <v>-0.7919564768266385</v>
       </c>
       <c r="D22">
         <v>1994</v>
       </c>
       <c r="E22">
-        <v>2.904903724339492</v>
+        <v>2.233697987812078</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,7 +780,7 @@
         <v>1994</v>
       </c>
       <c r="C23">
-        <v>-0.1128411297174559</v>
+        <v>-0.08235889394303531</v>
       </c>
       <c r="D23">
         <v>1995</v>
@@ -797,13 +797,13 @@
         <v>1994</v>
       </c>
       <c r="C24">
-        <v>3.361963408542512</v>
+        <v>1.992279837313027</v>
       </c>
       <c r="D24">
         <v>1995</v>
       </c>
       <c r="E24">
-        <v>4.79430739457769</v>
+        <v>4.794307394577713</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +814,13 @@
         <v>1994</v>
       </c>
       <c r="C25">
-        <v>3.446724149347369</v>
+        <v>2.034253551412335</v>
       </c>
       <c r="D25">
         <v>1995</v>
       </c>
       <c r="E25">
-        <v>5.02135618729278</v>
+        <v>5.007408279101266</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,13 +831,13 @@
         <v>1994</v>
       </c>
       <c r="C26">
-        <v>2.97335726296355</v>
+        <v>1.877689851450803</v>
       </c>
       <c r="D26">
         <v>1995</v>
       </c>
       <c r="E26">
-        <v>2.665429053088753</v>
+        <v>2.959667200710037</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +848,13 @@
         <v>1995</v>
       </c>
       <c r="C27">
-        <v>2.65265153851193</v>
+        <v>2.949794820919083</v>
       </c>
       <c r="D27">
         <v>1996</v>
       </c>
       <c r="E27">
-        <v>2.496487801240543</v>
+        <v>2.496487801240566</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,7 +865,7 @@
         <v>1995</v>
       </c>
       <c r="C28">
-        <v>1.621682589716311</v>
+        <v>2.327315368300176</v>
       </c>
       <c r="D28">
         <v>1996</v>
@@ -882,13 +882,13 @@
         <v>1995</v>
       </c>
       <c r="C29">
-        <v>2.928500938819512</v>
+        <v>2.983862704223506</v>
       </c>
       <c r="D29">
         <v>1996</v>
       </c>
       <c r="E29">
-        <v>4.334832871052918</v>
+        <v>4.116850794749616</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +899,13 @@
         <v>1995</v>
       </c>
       <c r="C30">
-        <v>2.096556826160434</v>
+        <v>2.705004599189187</v>
       </c>
       <c r="D30">
         <v>1996</v>
       </c>
       <c r="E30">
-        <v>0.2149543735169068</v>
+        <v>0.5406927319912658</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +916,13 @@
         <v>1996</v>
       </c>
       <c r="C31">
-        <v>-1.003426991783907</v>
+        <v>-0.3438755663591531</v>
       </c>
       <c r="D31">
         <v>1997</v>
       </c>
       <c r="E31">
-        <v>-1.623109194545869</v>
+        <v>-1.62310919454588</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +933,13 @@
         <v>1996</v>
       </c>
       <c r="C32">
-        <v>-0.8033535472972142</v>
+        <v>-0.1842552248438545</v>
       </c>
       <c r="D32">
         <v>1997</v>
       </c>
       <c r="E32">
-        <v>-1.47133593941452</v>
+        <v>-1.471335939414509</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +950,13 @@
         <v>1996</v>
       </c>
       <c r="C33">
-        <v>1.995556508765772</v>
+        <v>1.251699517323712</v>
       </c>
       <c r="D33">
         <v>1997</v>
       </c>
       <c r="E33">
-        <v>6.07205435699858</v>
+        <v>5.563869699488699</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +967,13 @@
         <v>1996</v>
       </c>
       <c r="C34">
-        <v>1.51235317422882</v>
+        <v>1.110374544249249</v>
       </c>
       <c r="D34">
         <v>1997</v>
       </c>
       <c r="E34">
-        <v>3.44109123085532</v>
+        <v>3.29487077883559</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,7 +984,7 @@
         <v>1997</v>
       </c>
       <c r="C35">
-        <v>0.9956380479535065</v>
+        <v>1.473491958790851</v>
       </c>
       <c r="D35">
         <v>1998</v>
@@ -1001,13 +1001,13 @@
         <v>1997</v>
       </c>
       <c r="C36">
-        <v>1.913978135611183</v>
+        <v>2.026577416695763</v>
       </c>
       <c r="D36">
         <v>1998</v>
       </c>
       <c r="E36">
-        <v>1.772867810894851</v>
+        <v>1.772867810894829</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>1997</v>
       </c>
       <c r="C37">
-        <v>2.63288054399069</v>
+        <v>2.316311825296391</v>
       </c>
       <c r="D37">
         <v>1998</v>
       </c>
       <c r="E37">
-        <v>4.103653953946607</v>
+        <v>3.922088483907982</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1035,13 @@
         <v>1997</v>
       </c>
       <c r="C38">
-        <v>2.470213055804171</v>
+        <v>2.267566233338814</v>
       </c>
       <c r="D38">
         <v>1998</v>
       </c>
       <c r="E38">
-        <v>3.223512181517285</v>
+        <v>3.15890982365572</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>1998</v>
       </c>
       <c r="C39">
-        <v>1.501649386914639</v>
+        <v>1.79793134045072</v>
       </c>
       <c r="D39">
         <v>1999</v>
@@ -1069,7 +1069,7 @@
         <v>1998</v>
       </c>
       <c r="C40">
-        <v>3.242370775602921</v>
+        <v>2.854404831300794</v>
       </c>
       <c r="D40">
         <v>1999</v>
@@ -1086,13 +1086,13 @@
         <v>1998</v>
       </c>
       <c r="C41">
-        <v>2.38021279352445</v>
+        <v>2.520027420504811</v>
       </c>
       <c r="D41">
         <v>1999</v>
       </c>
       <c r="E41">
-        <v>0.403886902700834</v>
+        <v>0.7369953173882893</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1103,13 +1103,13 @@
         <v>1998</v>
       </c>
       <c r="C42">
-        <v>2.919806032987537</v>
+        <v>2.688433258834588</v>
       </c>
       <c r="D42">
         <v>1999</v>
       </c>
       <c r="E42">
-        <v>3.31066493191241</v>
+        <v>3.239674285955152</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>1999</v>
       </c>
       <c r="C43">
-        <v>-0.7812961394590867</v>
+        <v>0.03508931819178329</v>
       </c>
       <c r="D43">
         <v>2000</v>
       </c>
       <c r="E43">
-        <v>-1.49121286907703</v>
+        <v>-1.491212869077041</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>1999</v>
       </c>
       <c r="C44">
-        <v>1.226353217902165</v>
+        <v>1.119050958886225</v>
       </c>
       <c r="D44">
         <v>2000</v>
       </c>
       <c r="E44">
-        <v>1.764569308912689</v>
+        <v>1.764569308912711</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>1999</v>
       </c>
       <c r="C45">
-        <v>0.514082989602116</v>
+        <v>0.6644935880125713</v>
       </c>
       <c r="D45">
         <v>2000</v>
       </c>
       <c r="E45">
-        <v>0.1696352460351935</v>
+        <v>0.2721425095460583</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,13 +1171,13 @@
         <v>1999</v>
       </c>
       <c r="C46">
-        <v>1.265707943805627</v>
+        <v>1.014079695989589</v>
       </c>
       <c r="D46">
         <v>2000</v>
       </c>
       <c r="E46">
-        <v>2.749040749286213</v>
+        <v>2.571626871154176</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>2.722516611145909</v>
+        <v>2.602992295755291</v>
       </c>
       <c r="D47">
         <v>2001</v>
       </c>
       <c r="E47">
-        <v>2.79318727581308</v>
+        <v>2.793187275813058</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,7 +1205,7 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>2.627339038007115</v>
+        <v>2.543418408082077</v>
       </c>
       <c r="D48">
         <v>2001</v>
@@ -1222,13 +1222,13 @@
         <v>2000</v>
       </c>
       <c r="C49">
-        <v>3.520319420863549</v>
+        <v>3.05948067825661</v>
       </c>
       <c r="D49">
         <v>2001</v>
       </c>
       <c r="E49">
-        <v>4.672864322632719</v>
+        <v>4.576939298429972</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,13 +1239,13 @@
         <v>2000</v>
       </c>
       <c r="C50">
-        <v>3.20246120238703</v>
+        <v>3.013853578092252</v>
       </c>
       <c r="D50">
         <v>2001</v>
       </c>
       <c r="E50">
-        <v>2.423157907697848</v>
+        <v>2.652928973511215</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,7 +1256,7 @@
         <v>2001</v>
       </c>
       <c r="C51">
-        <v>1.110730543065497</v>
+        <v>1.557847548455804</v>
       </c>
       <c r="D51">
         <v>2002</v>
@@ -1273,7 +1273,7 @@
         <v>2001</v>
       </c>
       <c r="C52">
-        <v>1.524696920689772</v>
+        <v>1.807361459167756</v>
       </c>
       <c r="D52">
         <v>2002</v>
@@ -1290,13 +1290,13 @@
         <v>2001</v>
       </c>
       <c r="C53">
-        <v>0.8211724618889082</v>
+        <v>1.359416220944376</v>
       </c>
       <c r="D53">
         <v>2002</v>
       </c>
       <c r="E53">
-        <v>-0.1208519928489138</v>
+        <v>-0.01404756688504483</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1307,13 +1307,13 @@
         <v>2001</v>
       </c>
       <c r="C54">
-        <v>0.7373694169584333</v>
+        <v>1.331295149770684</v>
       </c>
       <c r="D54">
         <v>2002</v>
       </c>
       <c r="E54">
-        <v>-0.5355721058181162</v>
+        <v>-0.3738725857433511</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1324,13 +1324,13 @@
         <v>2002</v>
       </c>
       <c r="C55">
-        <v>-0.8956034178887906</v>
+        <v>-0.6389915158661386</v>
       </c>
       <c r="D55">
         <v>2003</v>
       </c>
       <c r="E55">
-        <v>-1.013077525657213</v>
+        <v>-1.013077525657202</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1341,7 +1341,7 @@
         <v>2002</v>
       </c>
       <c r="C56">
-        <v>0.1611176198738296</v>
+        <v>-0.004756022387275571</v>
       </c>
       <c r="D56">
         <v>2003</v>
@@ -1358,13 +1358,13 @@
         <v>2002</v>
       </c>
       <c r="C57">
-        <v>0.3627467412391061</v>
+        <v>0.1075984474220748</v>
       </c>
       <c r="D57">
         <v>2003</v>
       </c>
       <c r="E57">
-        <v>1.09400414963623</v>
+        <v>1.096737181957796</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1375,13 +1375,13 @@
         <v>2002</v>
       </c>
       <c r="C58">
-        <v>0.2684059530231098</v>
+        <v>0.04589006555719699</v>
       </c>
       <c r="D58">
         <v>2003</v>
       </c>
       <c r="E58">
-        <v>1.04679887676995</v>
+        <v>1.021287096146906</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1392,13 +1392,13 @@
         <v>2003</v>
       </c>
       <c r="C59">
-        <v>0.08607429976750236</v>
+        <v>0.2983708965091258</v>
       </c>
       <c r="D59">
         <v>2004</v>
       </c>
       <c r="E59">
-        <v>-0.128465026883462</v>
+        <v>-0.1284650268834509</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1409,7 +1409,7 @@
         <v>2003</v>
       </c>
       <c r="C60">
-        <v>-0.4006528521986796</v>
+        <v>0.00555640981561023</v>
       </c>
       <c r="D60">
         <v>2004</v>
@@ -1426,13 +1426,13 @@
         <v>2003</v>
       </c>
       <c r="C61">
-        <v>-0.2413362127416829</v>
+        <v>-0.01054157278149725</v>
       </c>
       <c r="D61">
         <v>2004</v>
       </c>
       <c r="E61">
-        <v>-0.249038369687804</v>
+        <v>-0.293639345937069</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1443,13 +1443,13 @@
         <v>2003</v>
       </c>
       <c r="C62">
-        <v>-0.1057637798973721</v>
+        <v>0.009546395482029624</v>
       </c>
       <c r="D62">
         <v>2004</v>
       </c>
       <c r="E62">
-        <v>0.784627574469976</v>
+        <v>0.5726247744375135</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1460,7 +1460,7 @@
         <v>2004</v>
       </c>
       <c r="C63">
-        <v>0.7599445531636384</v>
+        <v>0.5462819374718819</v>
       </c>
       <c r="D63">
         <v>2005</v>
@@ -1477,13 +1477,13 @@
         <v>2004</v>
       </c>
       <c r="C64">
-        <v>1.364958142242334</v>
+        <v>0.9376318462105848</v>
       </c>
       <c r="D64">
         <v>2005</v>
       </c>
       <c r="E64">
-        <v>1.767600876148467</v>
+        <v>1.76760087614849</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1494,13 +1494,13 @@
         <v>2004</v>
       </c>
       <c r="C65">
-        <v>1.464899472987713</v>
+        <v>0.9972938839964529</v>
       </c>
       <c r="D65">
         <v>2005</v>
       </c>
       <c r="E65">
-        <v>1.915400035858239</v>
+        <v>1.903786650700678</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1511,13 +1511,13 @@
         <v>2004</v>
       </c>
       <c r="C66">
-        <v>1.132083408248952</v>
+        <v>0.8709390141433015</v>
       </c>
       <c r="D66">
         <v>2005</v>
       </c>
       <c r="E66">
-        <v>0.4769295963377385</v>
+        <v>0.6379602509701376</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1528,13 +1528,13 @@
         <v>2005</v>
       </c>
       <c r="C67">
-        <v>-0.6556855168197484</v>
+        <v>-0.26700475388578</v>
       </c>
       <c r="D67">
         <v>2006</v>
       </c>
       <c r="E67">
-        <v>-0.9275989085578695</v>
+        <v>-0.9275989085579028</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1545,13 +1545,13 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>2.565101731346275</v>
+        <v>1.619232310145868</v>
       </c>
       <c r="D68">
         <v>2006</v>
       </c>
       <c r="E68">
-        <v>4.242290614102995</v>
+        <v>4.242290614103017</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1562,13 +1562,13 @@
         <v>2005</v>
       </c>
       <c r="C69">
-        <v>0.7032976509341093</v>
+        <v>0.6209664018482774</v>
       </c>
       <c r="D69">
         <v>2006</v>
       </c>
       <c r="E69">
-        <v>0.0388104589621685</v>
+        <v>0.2235366186635002</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1579,13 +1579,13 @@
         <v>2005</v>
       </c>
       <c r="C70">
-        <v>1.17068886841063</v>
+        <v>0.7652063367885598</v>
       </c>
       <c r="D70">
         <v>2006</v>
       </c>
       <c r="E70">
-        <v>2.404550022669438</v>
+        <v>2.297544413125596</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1596,13 +1596,13 @@
         <v>2006</v>
       </c>
       <c r="C71">
-        <v>0.4179093297873582</v>
+        <v>0.795385233529422</v>
       </c>
       <c r="D71">
         <v>2007</v>
       </c>
       <c r="E71">
-        <v>0.03850782145529141</v>
+        <v>0.03850782145526921</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1613,13 +1613,13 @@
         <v>2006</v>
       </c>
       <c r="C72">
-        <v>1.347891148340952</v>
+        <v>1.395050145291932</v>
       </c>
       <c r="D72">
         <v>2007</v>
       </c>
       <c r="E72">
-        <v>1.469426281897124</v>
+        <v>1.469426281897146</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1630,13 +1630,13 @@
         <v>2006</v>
       </c>
       <c r="C73">
-        <v>2.581542210924548</v>
+        <v>2.152731590721313</v>
       </c>
       <c r="D73">
         <v>2007</v>
       </c>
       <c r="E73">
-        <v>3.653303802647412</v>
+        <v>3.596064423954815</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1647,13 +1647,13 @@
         <v>2006</v>
       </c>
       <c r="C74">
-        <v>2.634971782146511</v>
+        <v>2.267579219134386</v>
       </c>
       <c r="D74">
         <v>2007</v>
       </c>
       <c r="E74">
-        <v>2.672957813749899</v>
+        <v>2.825914290412324</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1664,7 +1664,7 @@
         <v>2007</v>
       </c>
       <c r="C75">
-        <v>3.569539125776688</v>
+        <v>3.61613968986243</v>
       </c>
       <c r="D75">
         <v>2008</v>
@@ -1681,7 +1681,7 @@
         <v>2007</v>
       </c>
       <c r="C76">
-        <v>2.757326331892296</v>
+        <v>3.227100693237817</v>
       </c>
       <c r="D76">
         <v>2008</v>
@@ -1698,13 +1698,13 @@
         <v>2007</v>
       </c>
       <c r="C77">
-        <v>2.380514178621373</v>
+        <v>3.037266614176493</v>
       </c>
       <c r="D77">
         <v>2008</v>
       </c>
       <c r="E77">
-        <v>1.041173713566756</v>
+        <v>1.111474640339982</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1715,13 +1715,13 @@
         <v>2007</v>
       </c>
       <c r="C78">
-        <v>2.706832025227879</v>
+        <v>3.146753122914103</v>
       </c>
       <c r="D78">
         <v>2008</v>
       </c>
       <c r="E78">
-        <v>2.654587275042641</v>
+        <v>2.510325059131513</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1732,7 +1732,7 @@
         <v>2008</v>
       </c>
       <c r="C79">
-        <v>1.243578350712982</v>
+        <v>1.413555272917222</v>
       </c>
       <c r="D79">
         <v>2009</v>
@@ -1749,7 +1749,7 @@
         <v>2008</v>
       </c>
       <c r="C80">
-        <v>4.474000753162399</v>
+        <v>3.348613256881983</v>
       </c>
       <c r="D80">
         <v>2009</v>
@@ -1766,13 +1766,13 @@
         <v>2008</v>
       </c>
       <c r="C81">
-        <v>1.162328214438868</v>
+        <v>1.649728232838221</v>
       </c>
       <c r="D81">
         <v>2009</v>
       </c>
       <c r="E81">
-        <v>-1.968355696949897</v>
+        <v>-1.536224533747932</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1783,13 +1783,13 @@
         <v>2008</v>
       </c>
       <c r="C82">
-        <v>1.31440288264395</v>
+        <v>1.769033835366818</v>
       </c>
       <c r="D82">
         <v>2009</v>
       </c>
       <c r="E82">
-        <v>-2.056110774875552</v>
+        <v>-1.563640406432543</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1800,13 +1800,13 @@
         <v>2009</v>
       </c>
       <c r="C83">
-        <v>-7.040858916206671</v>
+        <v>-5.428455976709945</v>
       </c>
       <c r="D83">
         <v>2010</v>
       </c>
       <c r="E83">
-        <v>-8.168886385001549</v>
+        <v>-8.168886385001572</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1817,7 +1817,7 @@
         <v>2009</v>
       </c>
       <c r="C84">
-        <v>-11.03055520881762</v>
+        <v>-7.921833713986381</v>
       </c>
       <c r="D84">
         <v>2010</v>
@@ -1834,13 +1834,13 @@
         <v>2009</v>
       </c>
       <c r="C85">
-        <v>-5.151298937385274</v>
+        <v>-4.930470955926891</v>
       </c>
       <c r="D85">
         <v>2010</v>
       </c>
       <c r="E85">
-        <v>1.276147640406755</v>
+        <v>0.2793426765416163</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1851,13 +1851,13 @@
         <v>2009</v>
       </c>
       <c r="C86">
-        <v>-4.769514953327725</v>
+        <v>-4.774715709990263</v>
       </c>
       <c r="D86">
         <v>2010</v>
       </c>
       <c r="E86">
-        <v>2.871822543797919</v>
+        <v>1.685921024959058</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1868,13 +1868,13 @@
         <v>2010</v>
       </c>
       <c r="C87">
-        <v>0.5039332755812032</v>
+        <v>-0.1163126952152038</v>
       </c>
       <c r="D87">
         <v>2011</v>
       </c>
       <c r="E87">
-        <v>0.03803908473005713</v>
+        <v>0.03803908473007933</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1885,7 +1885,7 @@
         <v>2010</v>
       </c>
       <c r="C88">
-        <v>1.015241516888299</v>
+        <v>0.2827397234951956</v>
       </c>
       <c r="D88">
         <v>2011</v>
@@ -1902,13 +1902,13 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>4.530308019934681</v>
+        <v>2.196493545801759</v>
       </c>
       <c r="D89">
         <v>2011</v>
       </c>
       <c r="E89">
-        <v>9.018237376004601</v>
+        <v>8.568719185922347</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1919,13 +1919,13 @@
         <v>2010</v>
       </c>
       <c r="C90">
-        <v>3.567253050445052</v>
+        <v>1.95493704440024</v>
       </c>
       <c r="D90">
         <v>2011</v>
       </c>
       <c r="E90">
-        <v>3.221819915514623</v>
+        <v>3.595026567604331</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1936,7 +1936,7 @@
         <v>2011</v>
       </c>
       <c r="C91">
-        <v>2.098198972479315</v>
+        <v>2.72340756546261</v>
       </c>
       <c r="D91">
         <v>2012</v>
@@ -1953,7 +1953,7 @@
         <v>2011</v>
       </c>
       <c r="C92">
-        <v>5.033263200693927</v>
+        <v>4.451761251541475</v>
       </c>
       <c r="D92">
         <v>2012</v>
@@ -1970,13 +1970,13 @@
         <v>2011</v>
       </c>
       <c r="C93">
-        <v>2.780537293178642</v>
+        <v>3.29767930224707</v>
       </c>
       <c r="D93">
         <v>2012</v>
       </c>
       <c r="E93">
-        <v>0.4777427304799353</v>
+        <v>0.7826062734672457</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1987,13 +1987,13 @@
         <v>2011</v>
       </c>
       <c r="C94">
-        <v>3.197395229487587</v>
+        <v>3.478075069442799</v>
       </c>
       <c r="D94">
         <v>2012</v>
       </c>
       <c r="E94">
-        <v>1.969805073970021</v>
+        <v>2.123512403013161</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2004,13 +2004,13 @@
         <v>2012</v>
       </c>
       <c r="C95">
-        <v>-0.235719712468252</v>
+        <v>0.4458489813406574</v>
       </c>
       <c r="D95">
         <v>2013</v>
       </c>
       <c r="E95">
-        <v>-0.7254889801606712</v>
+        <v>-0.7254889801606823</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2021,13 +2021,13 @@
         <v>2012</v>
       </c>
       <c r="C96">
-        <v>1.503844100497154</v>
+        <v>1.493655572990393</v>
       </c>
       <c r="D96">
         <v>2013</v>
       </c>
       <c r="E96">
-        <v>2.056299233127379</v>
+        <v>2.056299233127357</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2038,13 +2038,13 @@
         <v>2012</v>
       </c>
       <c r="C97">
-        <v>1.095545975015733</v>
+        <v>1.241655931850305</v>
       </c>
       <c r="D97">
         <v>2013</v>
       </c>
       <c r="E97">
-        <v>1.087241983956488</v>
+        <v>1.144392398037164</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2055,13 +2055,13 @@
         <v>2012</v>
       </c>
       <c r="C98">
-        <v>1.06768917260982</v>
+        <v>1.232342134690434</v>
       </c>
       <c r="D98">
         <v>2013</v>
       </c>
       <c r="E98">
-        <v>0.9484267606459706</v>
+        <v>1.023960954496861</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2072,7 +2072,7 @@
         <v>2013</v>
       </c>
       <c r="C99">
-        <v>-1.729898903150551</v>
+        <v>-1.041659499559311</v>
       </c>
       <c r="D99">
         <v>2014</v>
@@ -2089,7 +2089,7 @@
         <v>2013</v>
       </c>
       <c r="C100">
-        <v>-0.21382081602489</v>
+        <v>-0.2005234417569279</v>
       </c>
       <c r="D100">
         <v>2014</v>
@@ -2106,13 +2106,13 @@
         <v>2013</v>
       </c>
       <c r="C101">
-        <v>0.8191589644680919</v>
+        <v>0.3545920217052023</v>
       </c>
       <c r="D101">
         <v>2014</v>
       </c>
       <c r="E101">
-        <v>2.917121257221011</v>
+        <v>2.733824753076686</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2123,13 +2123,13 @@
         <v>2013</v>
       </c>
       <c r="C102">
-        <v>0.5174169974710985</v>
+        <v>0.2542811494408159</v>
       </c>
       <c r="D102">
         <v>2014</v>
       </c>
       <c r="E102">
-        <v>1.395491826955464</v>
+        <v>1.414810393331356</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2140,7 +2140,7 @@
         <v>2014</v>
       </c>
       <c r="C103">
-        <v>1.597615409724629</v>
+        <v>1.57041956569286</v>
       </c>
       <c r="D103">
         <v>2015</v>
@@ -2157,7 +2157,7 @@
         <v>2014</v>
       </c>
       <c r="C104">
-        <v>2.703038888817888</v>
+        <v>2.233381469093354</v>
       </c>
       <c r="D104">
         <v>2015</v>
@@ -2174,13 +2174,13 @@
         <v>2014</v>
       </c>
       <c r="C105">
-        <v>1.110494096781633</v>
+        <v>1.351514606937543</v>
       </c>
       <c r="D105">
         <v>2015</v>
       </c>
       <c r="E105">
-        <v>-0.6419615799714617</v>
+        <v>-0.4368018893037062</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2191,13 +2191,13 @@
         <v>2014</v>
       </c>
       <c r="C106">
-        <v>1.43635862321394</v>
+        <v>1.519778766382096</v>
       </c>
       <c r="D106">
         <v>2015</v>
       </c>
       <c r="E106">
-        <v>0.2273015603982964</v>
+        <v>0.3626330124320232</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2208,13 +2208,13 @@
         <v>2015</v>
       </c>
       <c r="C107">
-        <v>2.306681181882131</v>
+        <v>1.963988395659633</v>
       </c>
       <c r="D107">
         <v>2016</v>
       </c>
       <c r="E107">
-        <v>2.828301563863178</v>
+        <v>2.828301563863156</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2225,13 +2225,13 @@
         <v>2015</v>
       </c>
       <c r="C108">
-        <v>1.221982741572325</v>
+        <v>1.312922983354992</v>
       </c>
       <c r="D108">
         <v>2016</v>
       </c>
       <c r="E108">
-        <v>1.093658812337583</v>
+        <v>1.093658812337606</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2242,13 +2242,13 @@
         <v>2015</v>
       </c>
       <c r="C109">
-        <v>1.553151949369291</v>
+        <v>1.500640600036296</v>
       </c>
       <c r="D109">
         <v>2016</v>
       </c>
       <c r="E109">
-        <v>1.766127659124406</v>
+        <v>1.74292758336112</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2259,13 +2259,13 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1.4596601345918</v>
+        <v>1.469441753880329</v>
       </c>
       <c r="D110">
         <v>2016</v>
       </c>
       <c r="E110">
-        <v>1.30050158278785</v>
+        <v>1.339091979913909</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2276,7 +2276,7 @@
         <v>2016</v>
       </c>
       <c r="C111">
-        <v>1.115017892259318</v>
+        <v>1.182121420433835</v>
       </c>
       <c r="D111">
         <v>2017</v>
@@ -2293,7 +2293,7 @@
         <v>2016</v>
       </c>
       <c r="C112">
-        <v>2.120249189810353</v>
+        <v>1.785401661837871</v>
       </c>
       <c r="D112">
         <v>2017</v>
@@ -2310,13 +2310,13 @@
         <v>2016</v>
       </c>
       <c r="C113">
-        <v>1.859005500094479</v>
+        <v>1.694322133644444</v>
       </c>
       <c r="D113">
         <v>2017</v>
       </c>
       <c r="E113">
-        <v>1.655213378170184</v>
+        <v>1.729865159205746</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2327,13 +2327,13 @@
         <v>2016</v>
       </c>
       <c r="C114">
-        <v>1.690852638707807</v>
+        <v>1.638203081492495</v>
       </c>
       <c r="D114">
         <v>2017</v>
       </c>
       <c r="E114">
-        <v>0.8218326064489911</v>
+        <v>1.006355688239569</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2344,13 +2344,13 @@
         <v>2017</v>
       </c>
       <c r="C115">
-        <v>1.581805262830116</v>
+        <v>1.590949366496131</v>
       </c>
       <c r="D115">
         <v>2018</v>
       </c>
       <c r="E115">
-        <v>1.718660680127426</v>
+        <v>1.718660680127448</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2361,7 +2361,7 @@
         <v>2017</v>
       </c>
       <c r="C116">
-        <v>2.043020013918806</v>
+        <v>1.875259646256233</v>
       </c>
       <c r="D116">
         <v>2018</v>
@@ -2378,13 +2378,13 @@
         <v>2017</v>
       </c>
       <c r="C117">
-        <v>2.250818099384433</v>
+        <v>2.069618902324777</v>
       </c>
       <c r="D117">
         <v>2018</v>
       </c>
       <c r="E117">
-        <v>2.488721839376629</v>
+        <v>2.512512576803916</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2395,13 +2395,13 @@
         <v>2017</v>
       </c>
       <c r="C118">
-        <v>2.606219273451615</v>
+        <v>2.268697431234346</v>
       </c>
       <c r="D118">
         <v>2018</v>
       </c>
       <c r="E118">
-        <v>3.28927959958607</v>
+        <v>3.257368055312471</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2412,7 +2412,7 @@
         <v>2018</v>
       </c>
       <c r="C119">
-        <v>2.521663355433512</v>
+        <v>2.634892059569349</v>
       </c>
       <c r="D119">
         <v>2019</v>
@@ -2429,13 +2429,13 @@
         <v>2018</v>
       </c>
       <c r="C120">
-        <v>1.732765887893239</v>
+        <v>2.159588720360284</v>
       </c>
       <c r="D120">
         <v>2019</v>
       </c>
       <c r="E120">
-        <v>1.194436089410544</v>
+        <v>1.194436089410567</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2446,13 +2446,13 @@
         <v>2018</v>
       </c>
       <c r="C121">
-        <v>1.884961786224371</v>
+        <v>2.150866829216436</v>
       </c>
       <c r="D121">
         <v>2019</v>
       </c>
       <c r="E121">
-        <v>1.818612169905798</v>
+        <v>1.797076693609201</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2463,13 +2463,13 @@
         <v>2018</v>
       </c>
       <c r="C122">
-        <v>1.388653704388298</v>
+        <v>1.984425467899631</v>
       </c>
       <c r="D122">
         <v>2019</v>
       </c>
       <c r="E122">
-        <v>-0.6316633430149099</v>
+        <v>-0.3299132127116078</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2480,13 +2480,13 @@
         <v>2019</v>
       </c>
       <c r="C123">
-        <v>0.06931507776122281</v>
+        <v>0.2125796386348355</v>
       </c>
       <c r="D123">
         <v>2020</v>
       </c>
       <c r="E123">
-        <v>0.06931207502893777</v>
+        <v>0.06931207502891557</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2497,7 +2497,7 @@
         <v>2019</v>
       </c>
       <c r="C124">
-        <v>1.091657448782768</v>
+        <v>0.8260652760268661</v>
       </c>
       <c r="D124">
         <v>2020</v>
@@ -2514,13 +2514,13 @@
         <v>2019</v>
       </c>
       <c r="C125">
-        <v>0.4719424725907917</v>
+        <v>0.5878482333600887</v>
       </c>
       <c r="D125">
         <v>2020</v>
       </c>
       <c r="E125">
-        <v>-0.2984237405812884</v>
+        <v>-0.184209459439022</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2531,13 +2531,13 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>0.5493780357806122</v>
+        <v>0.6066448776129052</v>
       </c>
       <c r="D126">
         <v>2020</v>
       </c>
       <c r="E126">
-        <v>0.2550845388511691</v>
+        <v>0.2691274977562275</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2548,13 +2548,13 @@
         <v>2020</v>
       </c>
       <c r="C127">
-        <v>0.1283909379937276</v>
+        <v>0.2149628518104185</v>
       </c>
       <c r="D127">
         <v>2021</v>
       </c>
       <c r="E127">
-        <v>0.1120291165947362</v>
+        <v>0.1120291165947584</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2565,13 +2565,13 @@
         <v>2020</v>
       </c>
       <c r="C128">
-        <v>-5.439093160905695</v>
+        <v>-3.195510012625546</v>
       </c>
       <c r="D128">
         <v>2021</v>
       </c>
       <c r="E128">
-        <v>-8.595406358054724</v>
+        <v>-8.595406358054735</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2582,13 +2582,13 @@
         <v>2020</v>
       </c>
       <c r="C129">
-        <v>-15.35192132211821</v>
+        <v>-8.302628813338575</v>
       </c>
       <c r="D129">
         <v>2021</v>
       </c>
       <c r="E129">
-        <v>-33.48418022321263</v>
+        <v>-31.94181287796386</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2599,13 +2599,13 @@
         <v>2020</v>
       </c>
       <c r="C130">
-        <v>-3.301638448549793</v>
+        <v>-4.243076347305386</v>
       </c>
       <c r="D130">
         <v>2021</v>
       </c>
       <c r="E130">
-        <v>32.56775170516122</v>
+        <v>23.52713615747899</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2616,13 +2616,13 @@
         <v>2021</v>
       </c>
       <c r="C131">
-        <v>2.593400577522709</v>
+        <v>1.270905294349589</v>
       </c>
       <c r="D131">
         <v>2022</v>
       </c>
       <c r="E131">
-        <v>1.369508070836667</v>
+        <v>1.369508070836645</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2633,13 +2633,13 @@
         <v>2021</v>
       </c>
       <c r="C132">
-        <v>-2.562843444346952</v>
+        <v>-1.620339334086651</v>
       </c>
       <c r="D132">
         <v>2022</v>
       </c>
       <c r="E132">
-        <v>-7.034199224108995</v>
+        <v>-7.034199224108983</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2650,13 +2650,13 @@
         <v>2021</v>
       </c>
       <c r="C133">
-        <v>2.621930162267749</v>
+        <v>1.124379802296938</v>
       </c>
       <c r="D133">
         <v>2022</v>
       </c>
       <c r="E133">
-        <v>6.694137153385804</v>
+        <v>5.737053528842107</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2667,13 +2667,13 @@
         <v>2021</v>
       </c>
       <c r="C134">
-        <v>3.106788550518735</v>
+        <v>1.438499295329754</v>
       </c>
       <c r="D134">
         <v>2022</v>
       </c>
       <c r="E134">
-        <v>7.034924975572587</v>
+        <v>6.182015844361843</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2684,13 +2684,13 @@
         <v>2022</v>
       </c>
       <c r="C135">
-        <v>0.225052412347293</v>
+        <v>1.019009808564464</v>
       </c>
       <c r="D135">
         <v>2023</v>
       </c>
       <c r="E135">
-        <v>-1.38154284930978</v>
+        <v>-1.381542849309769</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2701,13 +2701,13 @@
         <v>2022</v>
       </c>
       <c r="C136">
-        <v>1.695914144558275</v>
+        <v>1.905757520223461</v>
       </c>
       <c r="D136">
         <v>2023</v>
       </c>
       <c r="E136">
-        <v>0.9449497347025382</v>
+        <v>0.9449497347025604</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2718,13 +2718,13 @@
         <v>2022</v>
       </c>
       <c r="C137">
-        <v>1.863229096418362</v>
+        <v>1.859156538875828</v>
       </c>
       <c r="D137">
         <v>2023</v>
       </c>
       <c r="E137">
-        <v>0.560091980042543</v>
+        <v>0.7242250277015527</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2735,13 +2735,13 @@
         <v>2022</v>
       </c>
       <c r="C138">
-        <v>2.033880321056336</v>
+        <v>1.906593537051537</v>
       </c>
       <c r="D138">
         <v>2023</v>
       </c>
       <c r="E138">
-        <v>1.535194717489086</v>
+        <v>1.559766133975371</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2752,13 +2752,13 @@
         <v>2023</v>
       </c>
       <c r="C139">
-        <v>-1.147907080334298</v>
+        <v>-0.4844355909533471</v>
       </c>
       <c r="D139">
         <v>2024</v>
       </c>
       <c r="E139">
-        <v>-1.729887888760862</v>
+        <v>-1.729887888760873</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2769,13 +2769,13 @@
         <v>2023</v>
       </c>
       <c r="C140">
-        <v>-1.031098731795621</v>
+        <v>-0.492451289919571</v>
       </c>
       <c r="D140">
         <v>2024</v>
       </c>
       <c r="E140">
-        <v>-1.334179412476999</v>
+        <v>-1.334179412476988</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2786,13 +2786,13 @@
         <v>2023</v>
       </c>
       <c r="C141">
-        <v>-0.2221570747711565</v>
+        <v>-0.009274716642126979</v>
       </c>
       <c r="D141">
         <v>2024</v>
       </c>
       <c r="E141">
-        <v>0.07425972018444416</v>
+        <v>0.04641060223202764</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2803,13 +2803,13 @@
         <v>2023</v>
       </c>
       <c r="C142">
-        <v>-0.1503791852542902</v>
+        <v>0.08348019664223827</v>
       </c>
       <c r="D142">
         <v>2024</v>
       </c>
       <c r="E142">
-        <v>-0.4505571821777465</v>
+        <v>-0.3513378667146627</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2820,13 +2820,13 @@
         <v>2024</v>
       </c>
       <c r="C143">
-        <v>-0.9272172019122782</v>
+        <v>-0.6834129483106799</v>
       </c>
       <c r="D143">
         <v>2025</v>
       </c>
       <c r="E143">
-        <v>-1.143319592253889</v>
+        <v>-1.1433195922539</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2837,7 +2837,7 @@
         <v>2024</v>
       </c>
       <c r="C144">
-        <v>0.2094135779914019</v>
+        <v>-0.0458093613100008</v>
       </c>
       <c r="D144">
         <v>2025</v>
@@ -2854,13 +2854,13 @@
         <v>2024</v>
       </c>
       <c r="C145">
-        <v>-0.0929520703639497</v>
+        <v>-0.1477591978862214</v>
       </c>
       <c r="D145">
         <v>2025</v>
       </c>
       <c r="E145">
-        <v>-0.2667808528446947</v>
+        <v>-0.1929726216109873</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2871,13 +2871,13 @@
         <v>2024</v>
       </c>
       <c r="C146">
-        <v>-0.1287369783011472</v>
+        <v>-0.214505326882275</v>
       </c>
       <c r="D146">
         <v>2025</v>
       </c>
       <c r="E146">
-        <v>0.3232392893758762</v>
+        <v>0.256124515548195</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2888,13 +2888,13 @@
         <v>2025</v>
       </c>
       <c r="C147">
-        <v>-0.6717923596149422</v>
+        <v>-0.510124816436186</v>
       </c>
       <c r="D147">
         <v>2026</v>
       </c>
       <c r="E147">
-        <v>-0.8001865026380672</v>
+        <v>-0.8001865026380561</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2905,13 +2905,13 @@
         <v>2025</v>
       </c>
       <c r="C148">
-        <v>0.8596336419319561</v>
+        <v>0.4077310087939434</v>
       </c>
       <c r="D148">
         <v>2026</v>
       </c>
       <c r="E148">
-        <v>1.656917693245807</v>
+        <v>1.656917693245785</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2922,13 +2922,13 @@
         <v>2025</v>
       </c>
       <c r="C149">
-        <v>-0.02796623791461172</v>
+        <v>0.06242428118210519</v>
       </c>
       <c r="D149">
         <v>2026</v>
       </c>
       <c r="E149">
-        <v>-1.102179609273968</v>
+        <v>-0.9576822268681839</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2939,13 +2939,13 @@
         <v>2025</v>
       </c>
       <c r="C150">
-        <v>0.2298740481777584</v>
+        <v>0.1651547428133782</v>
       </c>
       <c r="D150">
         <v>2026</v>
       </c>
       <c r="E150">
-        <v>-0.05255865067609333</v>
+        <v>-0.02867520550564606</v>
       </c>
     </row>
   </sheetData>
